--- a/htdocs/App/Controllers/Traspasos/2297DZC.xlsx
+++ b/htdocs/App/Controllers/Traspasos/2297DZC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>TRANSFERENCIAS PARTICULARES</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>28-11-2017</t>
+    <t>05-01-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Cristina</t>
+    <t>Silvia</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,6 +49,9 @@
     <t>Cobrado el</t>
   </si>
   <si>
+    <t>2018-01-05</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t>MARGARITA JAUME</t>
+    <t>ROBERTO TROYA</t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -94,7 +97,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>ROBERTO TROYA</t>
+    <t>GABRIEL</t>
   </si>
   <si>
     <t>Pago y Gest. IVTM………………</t>
@@ -1162,7 +1165,9 @@
       <c r="U9" s="46"/>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
-      <c r="X9" s="54"/>
+      <c r="X9" s="54" t="s">
+        <v>10</v>
+      </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
@@ -1264,22 +1269,22 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="55">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="T13" s="55"/>
       <c r="U13" s="45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V13" s="33">
         <v>4</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X13" s="33"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" s="30"/>
       <c r="AE13" s="8"/>
@@ -1287,13 +1292,13 @@
     <row r="14" spans="1:43" customHeight="1" ht="15.75">
       <c r="A14" s="31"/>
       <c r="B14" s="43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
@@ -1338,7 +1343,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
@@ -1349,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" s="30"/>
       <c r="AE15" s="8"/>
@@ -1358,11 +1363,11 @@
     <row r="16" spans="1:43" customHeight="1" ht="15.75">
       <c r="A16" s="31"/>
       <c r="B16" s="44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>1291</v>
+        <v>1770</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1379,7 +1384,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T16" s="59"/>
       <c r="U16" s="59"/>
@@ -1387,10 +1392,10 @@
       <c r="W16" s="59"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>58</v>
+        <v>12.4</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA16" s="30"/>
       <c r="AE16" s="8"/>
@@ -1415,7 +1420,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
@@ -1427,18 +1432,18 @@
         <v>0</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:43" customHeight="1" ht="15.75">
       <c r="A18" s="31"/>
       <c r="B18" s="42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
@@ -1455,7 +1460,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
@@ -1466,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" s="30"/>
     </row>
@@ -1490,7 +1495,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
@@ -1501,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" s="14"/>
     </row>
@@ -1525,7 +1530,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T20" s="59"/>
       <c r="U20" s="59"/>
@@ -1539,13 +1544,13 @@
     <row r="21" spans="1:43" customHeight="1" ht="15.75">
       <c r="A21" s="31"/>
       <c r="B21" s="43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
@@ -1560,7 +1565,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
@@ -1603,11 +1608,11 @@
     <row r="23" spans="1:43" customHeight="1" ht="15.6">
       <c r="A23" s="31"/>
       <c r="B23" s="42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>693759976</v>
+        <v>1771</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
@@ -1665,11 +1670,11 @@
     <row r="25" spans="1:43" customHeight="1" ht="15.75">
       <c r="A25" s="31"/>
       <c r="B25" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
@@ -1853,7 +1858,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
